--- a/artfynd/A 31761-2021.xlsx
+++ b/artfynd/A 31761-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94726809</v>
+        <v>94726850</v>
       </c>
       <c r="B2" t="n">
         <v>90653</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>386572.4667873504</v>
+        <v>385883.915955339</v>
       </c>
       <c r="R2" t="n">
-        <v>6857676.512812085</v>
+        <v>6857995.776764749</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -754,7 +754,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -801,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94726815</v>
+        <v>94726809</v>
       </c>
       <c r="B3" t="n">
         <v>90653</v>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>386513.1098144559</v>
+        <v>386572.4667873504</v>
       </c>
       <c r="R3" t="n">
-        <v>6857970.586442914</v>
+        <v>6857676.512812085</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -875,7 +875,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2021-06-11</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2021-06-11</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -922,7 +922,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94726808</v>
+        <v>94726815</v>
       </c>
       <c r="B4" t="n">
         <v>90653</v>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>386471.5539895515</v>
+        <v>386513.1098144559</v>
       </c>
       <c r="R4" t="n">
-        <v>6857773.923141795</v>
+        <v>6857970.586442914</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2021-06-11</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2021-06-11</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94726849</v>
+        <v>94726808</v>
       </c>
       <c r="B5" t="n">
         <v>90653</v>
@@ -1087,10 +1087,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>386436.8180425634</v>
+        <v>386471.5539895515</v>
       </c>
       <c r="R5" t="n">
-        <v>6858381.457110016</v>
+        <v>6857773.923141795</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1164,7 +1164,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>94726810</v>
+        <v>94726849</v>
       </c>
       <c r="B6" t="n">
         <v>90653</v>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>386473.1449506464</v>
+        <v>386436.8180425634</v>
       </c>
       <c r="R6" t="n">
-        <v>6857779.069685961</v>
+        <v>6858381.457110016</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1285,7 +1285,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>94726847</v>
+        <v>94726810</v>
       </c>
       <c r="B7" t="n">
         <v>90653</v>
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>386462.6085887029</v>
+        <v>386473.1449506464</v>
       </c>
       <c r="R7" t="n">
-        <v>6858245.91119291</v>
+        <v>6857779.069685961</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-06-10</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-06-10</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1406,7 +1406,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>94726850</v>
+        <v>94726847</v>
       </c>
       <c r="B8" t="n">
         <v>90653</v>
@@ -1450,10 +1450,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>385883.915955339</v>
+        <v>386462.6085887029</v>
       </c>
       <c r="R8" t="n">
-        <v>6857995.776764749</v>
+        <v>6858245.91119291</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>2021-06-10</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>2021-06-10</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">

--- a/artfynd/A 31761-2021.xlsx
+++ b/artfynd/A 31761-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94726850</v>
+        <v>94726809</v>
       </c>
       <c r="B2" t="n">
         <v>90653</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>385883.915955339</v>
+        <v>386572.4667873504</v>
       </c>
       <c r="R2" t="n">
-        <v>6857995.776764749</v>
+        <v>6857676.512812085</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -754,7 +754,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -801,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94726809</v>
+        <v>94726815</v>
       </c>
       <c r="B3" t="n">
         <v>90653</v>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>386572.4667873504</v>
+        <v>386513.1098144559</v>
       </c>
       <c r="R3" t="n">
-        <v>6857676.512812085</v>
+        <v>6857970.586442914</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -875,7 +875,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2021-06-11</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2021-06-11</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -922,7 +922,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94726815</v>
+        <v>94726808</v>
       </c>
       <c r="B4" t="n">
         <v>90653</v>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>386513.1098144559</v>
+        <v>386471.5539895515</v>
       </c>
       <c r="R4" t="n">
-        <v>6857970.586442914</v>
+        <v>6857773.923141795</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-06-11</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-06-11</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94726808</v>
+        <v>94726849</v>
       </c>
       <c r="B5" t="n">
         <v>90653</v>
@@ -1087,10 +1087,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>386471.5539895515</v>
+        <v>386436.8180425634</v>
       </c>
       <c r="R5" t="n">
-        <v>6857773.923141795</v>
+        <v>6858381.457110016</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1164,7 +1164,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>94726849</v>
+        <v>94726810</v>
       </c>
       <c r="B6" t="n">
         <v>90653</v>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>386436.8180425634</v>
+        <v>386473.1449506464</v>
       </c>
       <c r="R6" t="n">
-        <v>6858381.457110016</v>
+        <v>6857779.069685961</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1285,7 +1285,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>94726810</v>
+        <v>94726847</v>
       </c>
       <c r="B7" t="n">
         <v>90653</v>
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>386473.1449506464</v>
+        <v>386462.6085887029</v>
       </c>
       <c r="R7" t="n">
-        <v>6857779.069685961</v>
+        <v>6858245.91119291</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2021-06-10</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2021-06-10</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1406,7 +1406,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>94726847</v>
+        <v>94726850</v>
       </c>
       <c r="B8" t="n">
         <v>90653</v>
@@ -1450,10 +1450,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>386462.6085887029</v>
+        <v>385883.915955339</v>
       </c>
       <c r="R8" t="n">
-        <v>6858245.91119291</v>
+        <v>6857995.776764749</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-06-10</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-06-10</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
